--- a/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
+++ b/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Validation_Drop-Down_Lists\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CF952-C060-4861-94BC-77AEEE910D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Joining Date</t>
+  </si>
+  <si>
+    <t>Tola James</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Chidera Obi</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Femi Ade</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Amina Yusuf</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Obinna Udo</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +393,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>250000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>180000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>400000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>120000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44931</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
+++ b/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Validation_Drop-Down_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CF952-C060-4861-94BC-77AEEE910D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9306C-98BF-402D-B505-D2ACEF56D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +76,9 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Dept.</t>
   </si>
 </sst>
 </file>
@@ -113,7 +125,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,19 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -419,8 +434,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,8 +454,15 @@
       <c r="D2" s="1">
         <v>43800</v>
       </c>
+      <c r="E2" t="b">
+        <f>ISNUMBER(D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -447,8 +475,15 @@
       <c r="D3" s="1">
         <v>44362</v>
       </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E5" si="0">ISNUMBER(D3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -461,8 +496,15 @@
       <c r="D4" s="1">
         <v>42816</v>
       </c>
+      <c r="E4" t="b">
+        <f>ISNUMBER(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -475,8 +517,15 @@
       <c r="D5" s="1">
         <v>43353</v>
       </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -489,8 +538,16 @@
       <c r="D6" s="1">
         <v>44931</v>
       </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{EFDA3837-00FF-4030-AFC2-90B3767C526C}">
+      <formula1>"HR, IT, Sales, Finance, Marketing"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
+++ b/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Validation_Drop-Down_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9306C-98BF-402D-B505-D2ACEF56D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A486FE-9324-4C78-8C93-B1BA02C4DB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Marketing</t>
-  </si>
-  <si>
-    <t>Dept.</t>
   </si>
 </sst>
 </file>
@@ -408,20 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -434,14 +430,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -454,15 +444,8 @@
       <c r="D2" s="1">
         <v>43800</v>
       </c>
-      <c r="E2" t="b">
-        <f>ISNUMBER(D2)</f>
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -475,15 +458,8 @@
       <c r="D3" s="1">
         <v>44362</v>
       </c>
-      <c r="E3" t="b">
-        <f t="shared" ref="E3:E5" si="0">ISNUMBER(D3)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -496,15 +472,8 @@
       <c r="D4" s="1">
         <v>42816</v>
       </c>
-      <c r="E4" t="b">
-        <f>ISNUMBER(B2)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -517,15 +486,8 @@
       <c r="D5" s="1">
         <v>43353</v>
       </c>
-      <c r="E5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -538,14 +500,15 @@
       <c r="D6" s="1">
         <v>44931</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{EFDA3837-00FF-4030-AFC2-90B3767C526C}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{EFDA3837-00FF-4030-AFC2-90B3767C526C}">
       <formula1>"HR, IT, Sales, Finance, Marketing"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{CE1B78AD-AAF9-48E3-86F7-FC3BF8498ABB}">
+      <formula1>100000</formula1>
+      <formula2>500000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
+++ b/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Validation_Drop-Down_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A486FE-9324-4C78-8C93-B1BA02C4DB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63812D6-A61C-4315-BD9E-44DDF3E8ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Error Testing</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Happy</t>
   </si>
 </sst>
 </file>
@@ -405,19 +423,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,8 +449,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -444,8 +466,11 @@
       <c r="D2" s="1">
         <v>43800</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -458,8 +483,11 @@
       <c r="D3" s="1">
         <v>44362</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -472,8 +500,11 @@
       <c r="D4" s="1">
         <v>42816</v>
       </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -486,8 +517,11 @@
       <c r="D5" s="1">
         <v>43353</v>
       </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -500,9 +534,12 @@
       <c r="D6" s="1">
         <v>44931</v>
       </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{EFDA3837-00FF-4030-AFC2-90B3767C526C}">
       <formula1>"HR, IT, Sales, Finance, Marketing"</formula1>
     </dataValidation>
@@ -510,6 +547,11 @@
       <formula1>100000</formula1>
       <formula2>500000</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Only Text" error="Please type in words between 2 and 5" sqref="F1 F7:F1048576" xr:uid="{104E319D-6985-41AA-AA6A-714A8DBEA091}"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Only Text" error="Please type in words with length in the range 2 and 5" sqref="F2:F6" xr:uid="{C2CF2C81-24F1-4E44-AB09-2B8BF0CC00B7}">
+      <formula1>2</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
+++ b/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Validation_Drop-Down_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63812D6-A61C-4315-BD9E-44DDF3E8ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE570CA-F5F6-4F15-87E8-2FCB52D8034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,22 +78,22 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>Error Testing</t>
-  </si>
-  <si>
-    <t>Calm</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Happy</t>
+    <t>Data Validation Rules</t>
+  </si>
+  <si>
+    <t>2. Department column has a drop-down with these options: HR, IT, Finance, Sales, Marketing</t>
+  </si>
+  <si>
+    <t>1. Employee names must be longer than 3 characters.</t>
+  </si>
+  <si>
+    <t>3. Salary column only allow numbers between 100,000 and 500,000</t>
+  </si>
+  <si>
+    <t>4. There is an error message for Salary saying: “Salary must be between ₦100,000 and ₦500,000.”</t>
+  </si>
+  <si>
+    <t>5. Joining Date column has been restricted to only allow dates between 01/01/2015 and 12/31/2025.</t>
   </si>
 </sst>
 </file>
@@ -137,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,37 +424,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -466,11 +464,8 @@
       <c r="D2" s="1">
         <v>43800</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -483,11 +478,8 @@
       <c r="D3" s="1">
         <v>44362</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -500,11 +492,8 @@
       <c r="D4" s="1">
         <v>42816</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -517,11 +506,8 @@
       <c r="D5" s="1">
         <v>43353</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -534,7 +520,34 @@
       <c r="D6" s="1">
         <v>44931</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -543,14 +556,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{EFDA3837-00FF-4030-AFC2-90B3767C526C}">
       <formula1>"HR, IT, Sales, Finance, Marketing"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{CE1B78AD-AAF9-48E3-86F7-FC3BF8498ABB}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salary range" error="Salary must be between ₦100,000 and ₦500,000." sqref="C2:C6" xr:uid="{CE1B78AD-AAF9-48E3-86F7-FC3BF8498ABB}">
       <formula1>100000</formula1>
       <formula2>500000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Only Text" error="Please type in words between 2 and 5" sqref="F1 F7:F1048576" xr:uid="{104E319D-6985-41AA-AA6A-714A8DBEA091}"/>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Only Text" error="Please type in words with length in the range 2 and 5" sqref="F2:F6" xr:uid="{C2CF2C81-24F1-4E44-AB09-2B8BF0CC00B7}">
-      <formula1>2</formula1>
-      <formula2>5</formula2>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{BFCFA031-820F-4131-8C6C-39839A66C2FF}">
+      <formula1>42005</formula1>
+      <formula2>46022</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{73A7BF3F-2620-488C-9DA3-14B706EDE224}">
+      <formula1>3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
+++ b/stage_1/Data_Validation_Drop-Down_Lists/Data_validation_Drop-Down.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Validation_Drop-Down_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE570CA-F5F6-4F15-87E8-2FCB52D8034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405554F-66C3-4ED1-A420-2F0B1AAA8FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
